--- a/translation/xlsx/_tsum_015_2.xlsx
+++ b/translation/xlsx/_tsum_015_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1383">
   <si>
     <t>actor</t>
   </si>
@@ -474,6 +474,9 @@
     <t xml:space="preserve"> Oh... the nurse, Takano-san?</t>
   </si>
   <si>
+    <t xml:space="preserve">아...... 그, 간호사 타카노 씨 말하는 거지? </t>
+  </si>
+  <si>
     <t xml:space="preserve">아...... 그, 간호사 타카노 씨 말하는 거지?\" </t>
   </si>
   <si>
@@ -3714,7 +3717,7 @@
     <t xml:space="preserve"> with a purple ribbon on it.</t>
   </si>
   <si>
-    <t xml:space="preserve">보라색 리본도 했다.\" </t>
+    <t xml:space="preserve">보라색 리본도 했다. </t>
   </si>
   <si>
     <t xml:space="preserve">보라색 리본도 하고 있고. </t>
@@ -3732,13 +3735,16 @@
     <t xml:space="preserve"> Did you see her?\"</t>
   </si>
   <si>
+    <t xml:space="preserve">몬 봤나.\" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">못 봤나?\" </t>
+  </si>
+  <si>
+    <t>만나지 못했니?</t>
+  </si>
+  <si>
     <t xml:space="preserve">\"몬 봤나.\" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">못 봤나?\" </t>
-  </si>
-  <si>
-    <t>만나지 못했니?</t>
   </si>
   <si>
     <t xml:space="preserve">　それは紛れもなくレナを示したものに違いない。</t>
@@ -5438,18 +5444,18 @@
       <c r="C35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="12" t="s">
         <v>152</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="4"/>
@@ -5458,23 +5464,23 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="4"/>
@@ -5486,23 +5492,23 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -5511,23 +5517,23 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5536,23 +5542,23 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5564,23 +5570,23 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5589,23 +5595,23 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5614,23 +5620,23 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -5639,23 +5645,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K43" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
@@ -5667,23 +5673,23 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
@@ -5692,23 +5698,23 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5720,23 +5726,23 @@
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
@@ -5748,23 +5754,23 @@
         <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K47" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -5776,23 +5782,23 @@
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5801,23 +5807,23 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="4"/>
@@ -5829,23 +5835,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5854,23 +5860,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -5879,23 +5885,23 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -5904,23 +5910,23 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -5932,23 +5938,23 @@
         <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -5957,23 +5963,23 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -5985,23 +5991,23 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -6010,23 +6016,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -6035,23 +6041,23 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J58" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K58" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6063,23 +6069,23 @@
         <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J59" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K59" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="4"/>
@@ -6091,23 +6097,23 @@
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J60" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K60" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6116,23 +6122,23 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K61" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="4"/>
@@ -6141,23 +6147,23 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J62" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K62" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -6166,23 +6172,23 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K63" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="4"/>
@@ -6191,23 +6197,23 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K64" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
@@ -6219,23 +6225,23 @@
         <v>6</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
@@ -6244,23 +6250,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K66" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
@@ -6272,23 +6278,23 @@
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -6297,23 +6303,23 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K68" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
@@ -6322,23 +6328,23 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K69" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>294</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
@@ -6347,23 +6353,23 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6375,23 +6381,23 @@
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
@@ -6400,23 +6406,23 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="K72" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
@@ -6428,23 +6434,23 @@
         <v>23</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J73" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -6453,23 +6459,23 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J74" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K74" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -6481,23 +6487,23 @@
         <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J75" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K75" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>322</v>
       </c>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
@@ -6506,23 +6512,23 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K76" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
@@ -6534,23 +6540,23 @@
         <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K77" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>331</v>
       </c>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
@@ -6559,23 +6565,23 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K78" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
@@ -6584,23 +6590,23 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J79" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K79" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="K79" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
@@ -6612,23 +6618,23 @@
         <v>23</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J80" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K80" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>344</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -6637,23 +6643,23 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J81" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K81" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
@@ -6662,23 +6668,23 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J82" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K82" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -6687,23 +6693,23 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K83" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="K83" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
@@ -6715,23 +6721,23 @@
         <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K84" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -6740,23 +6746,23 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J85" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K85" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -6765,23 +6771,23 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K86" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="K86" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="L86" s="11"/>
       <c r="M86" s="4"/>
@@ -6793,23 +6799,23 @@
         <v>23</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -6821,23 +6827,23 @@
         <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K88" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
@@ -6849,23 +6855,23 @@
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K89" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
@@ -6874,23 +6880,23 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="B90" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J90" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -6899,23 +6905,23 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J91" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K91" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="K91" s="13" t="s">
-        <v>392</v>
       </c>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
@@ -6924,23 +6930,23 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -6949,23 +6955,23 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K93" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
@@ -6977,23 +6983,23 @@
         <v>23</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -7002,23 +7008,23 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J95" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -7027,23 +7033,23 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J96" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -7055,23 +7061,23 @@
         <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J97" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -7080,23 +7086,23 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J98" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K98" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="K98" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -7105,23 +7111,23 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J99" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K99" s="13" t="s">
         <v>426</v>
-      </c>
-      <c r="K99" s="13" t="s">
-        <v>425</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -7130,23 +7136,23 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K100" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="K100" s="13" t="s">
-        <v>429</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
@@ -7155,23 +7161,23 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K101" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="K101" s="13" t="s">
-        <v>434</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
@@ -7183,23 +7189,23 @@
         <v>6</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J102" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="K102" s="13" t="s">
         <v>439</v>
-      </c>
-      <c r="K102" s="13" t="s">
-        <v>438</v>
       </c>
       <c r="L102" s="11"/>
       <c r="M102" s="4"/>
@@ -7208,23 +7214,23 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J103" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K103" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="K103" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
@@ -7236,23 +7242,23 @@
         <v>23</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J104" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -7261,23 +7267,23 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J105" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K105" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>450</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="4"/>
@@ -7289,23 +7295,23 @@
         <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J106" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -7314,23 +7320,23 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="B107" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J107" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K107" s="13" t="s">
         <v>459</v>
-      </c>
-      <c r="K107" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="4"/>
@@ -7342,23 +7348,23 @@
         <v>6</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J108" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K108" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="K108" s="13" t="s">
-        <v>462</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="4"/>
@@ -7370,23 +7376,23 @@
         <v>23</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -7395,23 +7401,23 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J110" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
@@ -7423,23 +7429,23 @@
         <v>6</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J111" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -7448,23 +7454,23 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J112" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -7473,23 +7479,23 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="B113" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J113" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K113" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="K113" s="13" t="s">
-        <v>481</v>
       </c>
       <c r="L113" s="11"/>
       <c r="M113" s="4"/>
@@ -7498,23 +7504,23 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J114" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K114" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="K114" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
@@ -7523,23 +7529,23 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J115" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -7548,23 +7554,23 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="B116" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K116" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="K116" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
@@ -7573,23 +7579,23 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J117" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K117" s="13" t="s">
         <v>499</v>
-      </c>
-      <c r="K117" s="13" t="s">
-        <v>498</v>
       </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
@@ -7598,23 +7604,23 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="B118" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J118" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="K118" s="13" t="s">
         <v>503</v>
-      </c>
-      <c r="K118" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
@@ -7626,23 +7632,23 @@
         <v>6</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J119" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
@@ -7654,23 +7660,23 @@
         <v>23</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J120" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
@@ -7679,23 +7685,23 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J121" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
@@ -7704,23 +7710,23 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J122" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
@@ -7732,23 +7738,23 @@
         <v>6</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J123" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K123" s="13" t="s">
         <v>523</v>
-      </c>
-      <c r="K123" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
@@ -7760,23 +7766,23 @@
         <v>23</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J124" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K124" s="13" t="s">
         <v>527</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
@@ -7788,23 +7794,23 @@
         <v>6</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J125" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -7813,23 +7819,23 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="B126" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J126" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="K126" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="K126" s="13" t="s">
-        <v>534</v>
       </c>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
@@ -7838,23 +7844,23 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="B127" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J127" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="K127" s="10" t="s">
         <v>539</v>
-      </c>
-      <c r="K127" s="10" t="s">
-        <v>538</v>
       </c>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
@@ -7866,23 +7872,23 @@
         <v>23</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J128" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -7891,23 +7897,23 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="B129" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J129" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="K129" s="13" t="s">
         <v>547</v>
-      </c>
-      <c r="K129" s="13" t="s">
-        <v>546</v>
       </c>
       <c r="L129" s="11"/>
       <c r="M129" s="11"/>
@@ -7919,23 +7925,23 @@
         <v>6</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -7944,23 +7950,23 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="K131" s="13" t="s">
         <v>554</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="K131" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
@@ -7969,23 +7975,23 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="K132" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="K132" s="13" t="s">
-        <v>558</v>
       </c>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
@@ -7994,23 +8000,23 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K133" s="13" t="s">
         <v>564</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="K133" s="13" t="s">
-        <v>563</v>
       </c>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
@@ -8019,23 +8025,23 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="K134" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="K134" s="13" t="s">
-        <v>568</v>
       </c>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
@@ -8044,23 +8050,23 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J135" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="K135" s="13" t="s">
         <v>574</v>
-      </c>
-      <c r="K135" s="13" t="s">
-        <v>573</v>
       </c>
       <c r="L135" s="11"/>
       <c r="M135" s="4"/>
@@ -8072,23 +8078,23 @@
         <v>23</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J136" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K136" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="K136" s="13" t="s">
-        <v>577</v>
       </c>
       <c r="L136" s="11"/>
       <c r="M136" s="11"/>
@@ -8100,23 +8106,23 @@
         <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J137" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -8125,23 +8131,23 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J138" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K138" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="K138" s="13" t="s">
-        <v>585</v>
       </c>
       <c r="L138" s="11"/>
       <c r="M138" s="11"/>
@@ -8153,23 +8159,23 @@
         <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="K139" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="K139" s="13" t="s">
-        <v>589</v>
       </c>
       <c r="L139" s="11"/>
       <c r="M139" s="11"/>
@@ -8181,23 +8187,23 @@
         <v>23</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J140" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -8209,23 +8215,23 @@
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J141" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
@@ -8234,23 +8240,23 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J142" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="K142" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="K142" s="13" t="s">
-        <v>602</v>
       </c>
       <c r="L142" s="11"/>
       <c r="M142" s="11"/>
@@ -8259,23 +8265,23 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H143" s="6"/>
       <c r="I143" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J143" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K143" s="13" t="s">
         <v>607</v>
-      </c>
-      <c r="K143" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="L143" s="11"/>
       <c r="M143" s="4"/>
@@ -8287,23 +8293,23 @@
         <v>23</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J144" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
@@ -8312,23 +8318,23 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K145" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="K145" s="13" t="s">
-        <v>613</v>
       </c>
       <c r="L145" s="11"/>
       <c r="M145" s="11"/>
@@ -8340,23 +8346,23 @@
         <v>6</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J146" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>618</v>
       </c>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -8365,23 +8371,23 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H147" s="6"/>
       <c r="I147" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J147" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="K147" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="K147" s="13" t="s">
-        <v>622</v>
       </c>
       <c r="L147" s="11"/>
       <c r="M147" s="11"/>
@@ -8390,23 +8396,23 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J148" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K148" s="13" t="s">
         <v>627</v>
-      </c>
-      <c r="K148" s="13" t="s">
-        <v>626</v>
       </c>
       <c r="L148" s="11"/>
       <c r="M148" s="11"/>
@@ -8418,23 +8424,23 @@
         <v>23</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J149" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -8443,23 +8449,23 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J150" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K150" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="K150" s="13" t="s">
-        <v>634</v>
       </c>
       <c r="L150" s="11"/>
       <c r="M150" s="4"/>
@@ -8468,23 +8474,23 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H151" s="6"/>
       <c r="I151" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J151" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="K151" s="13" t="s">
         <v>639</v>
-      </c>
-      <c r="K151" s="13" t="s">
-        <v>638</v>
       </c>
       <c r="L151" s="11"/>
       <c r="M151" s="11"/>
@@ -8496,23 +8502,23 @@
         <v>6</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J152" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="K152" s="13" t="s">
         <v>643</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>642</v>
       </c>
       <c r="L152" s="11"/>
       <c r="M152" s="11"/>
@@ -8524,23 +8530,23 @@
         <v>23</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J153" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="K153" s="10" t="s">
         <v>647</v>
-      </c>
-      <c r="K153" s="10" t="s">
-        <v>646</v>
       </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
@@ -8549,23 +8555,23 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J154" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="K154" s="13" t="s">
         <v>651</v>
-      </c>
-      <c r="K154" s="13" t="s">
-        <v>650</v>
       </c>
       <c r="L154" s="11"/>
       <c r="M154" s="4"/>
@@ -8577,23 +8583,23 @@
         <v>6</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J155" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -8602,23 +8608,23 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J156" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
@@ -8627,23 +8633,23 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H157" s="6"/>
       <c r="I157" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="K157" s="13" t="s">
         <v>663</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="K157" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="L157" s="11"/>
       <c r="M157" s="11"/>
@@ -8652,23 +8658,23 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J158" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K158" s="13" t="s">
         <v>668</v>
-      </c>
-      <c r="K158" s="13" t="s">
-        <v>667</v>
       </c>
       <c r="L158" s="11"/>
       <c r="M158" s="11"/>
@@ -8680,23 +8686,23 @@
         <v>23</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J159" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
@@ -8708,23 +8714,23 @@
         <v>6</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J160" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="K160" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="K160" s="13" t="s">
-        <v>675</v>
       </c>
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
@@ -8736,23 +8742,23 @@
         <v>23</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
@@ -8761,23 +8767,23 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J162" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="K162" s="13" t="s">
         <v>683</v>
-      </c>
-      <c r="K162" s="13" t="s">
-        <v>682</v>
       </c>
       <c r="L162" s="11"/>
       <c r="M162" s="11"/>
@@ -8789,23 +8795,23 @@
         <v>6</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J163" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="K163" s="13" t="s">
         <v>687</v>
-      </c>
-      <c r="K163" s="13" t="s">
-        <v>686</v>
       </c>
       <c r="L163" s="11"/>
       <c r="M163" s="11"/>
@@ -8814,23 +8820,23 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="K164" s="16" t="s">
         <v>691</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="K164" s="16" t="s">
-        <v>690</v>
       </c>
       <c r="L164" s="11"/>
       <c r="M164" s="11"/>
@@ -8842,23 +8848,23 @@
         <v>23</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H165" s="6"/>
       <c r="I165" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J165" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="K165" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="K165" s="13" t="s">
-        <v>695</v>
       </c>
       <c r="L165" s="11"/>
       <c r="M165" s="4"/>
@@ -8867,23 +8873,23 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H166" s="6"/>
       <c r="I166" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J166" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="K166" s="10" t="s">
         <v>700</v>
-      </c>
-      <c r="K166" s="10" t="s">
-        <v>699</v>
       </c>
       <c r="L166" s="11"/>
       <c r="M166" s="11"/>
@@ -8895,23 +8901,23 @@
         <v>6</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H167" s="6"/>
       <c r="I167" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J167" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="K167" s="13" t="s">
         <v>704</v>
-      </c>
-      <c r="K167" s="13" t="s">
-        <v>703</v>
       </c>
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
@@ -8923,23 +8929,23 @@
         <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J168" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="K168" s="10" t="s">
         <v>708</v>
-      </c>
-      <c r="K168" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="L168" s="11"/>
       <c r="M168" s="11"/>
@@ -8948,23 +8954,23 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J169" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
@@ -8973,23 +8979,23 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="K170" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="K170" s="10" t="s">
-        <v>715</v>
       </c>
       <c r="L170" s="11"/>
       <c r="M170" s="11"/>
@@ -9001,23 +9007,23 @@
         <v>6</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J171" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="K171" s="13" t="s">
         <v>721</v>
-      </c>
-      <c r="K171" s="13" t="s">
-        <v>720</v>
       </c>
       <c r="L171" s="11"/>
       <c r="M171" s="11"/>
@@ -9029,23 +9035,23 @@
         <v>6</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J172" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="K172" s="13" t="s">
         <v>725</v>
-      </c>
-      <c r="K172" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="L172" s="11"/>
       <c r="M172" s="11"/>
@@ -9054,23 +9060,23 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H173" s="6"/>
       <c r="I173" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="K173" s="13" t="s">
         <v>729</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="K173" s="13" t="s">
-        <v>728</v>
       </c>
       <c r="L173" s="11"/>
       <c r="M173" s="11"/>
@@ -9082,23 +9088,23 @@
         <v>23</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H174" s="6"/>
       <c r="I174" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>733</v>
       </c>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
@@ -9107,23 +9113,23 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H175" s="6"/>
       <c r="I175" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J175" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="K175" s="13" t="s">
         <v>739</v>
-      </c>
-      <c r="K175" s="13" t="s">
-        <v>738</v>
       </c>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
@@ -9135,23 +9141,23 @@
         <v>6</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H176" s="6"/>
       <c r="I176" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
@@ -9160,23 +9166,23 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J177" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="K177" s="13" t="s">
         <v>746</v>
-      </c>
-      <c r="K177" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="L177" s="11"/>
       <c r="M177" s="11"/>
@@ -9185,23 +9191,23 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H178" s="6"/>
       <c r="I178" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J178" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="K178" s="13" t="s">
         <v>750</v>
-      </c>
-      <c r="K178" s="13" t="s">
-        <v>749</v>
       </c>
       <c r="L178" s="11"/>
       <c r="M178" s="11"/>
@@ -9213,23 +9219,23 @@
         <v>6</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H179" s="6"/>
       <c r="I179" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J179" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="K179" s="13" t="s">
         <v>754</v>
-      </c>
-      <c r="K179" s="13" t="s">
-        <v>753</v>
       </c>
       <c r="L179" s="11"/>
       <c r="M179" s="11"/>
@@ -9238,23 +9244,23 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="K180" s="13" t="s">
         <v>758</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="K180" s="13" t="s">
-        <v>757</v>
       </c>
       <c r="L180" s="11"/>
       <c r="M180" s="4"/>
@@ -9263,23 +9269,23 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J181" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="K181" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="K181" s="13" t="s">
-        <v>762</v>
       </c>
       <c r="L181" s="11"/>
       <c r="M181" s="11"/>
@@ -9291,23 +9297,23 @@
         <v>6</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H182" s="6"/>
       <c r="I182" s="15" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="K182" s="16" t="s">
         <v>767</v>
-      </c>
-      <c r="K182" s="16" t="s">
-        <v>766</v>
       </c>
       <c r="L182" s="11"/>
       <c r="M182" s="11"/>
@@ -9319,23 +9325,23 @@
         <v>23</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K183" s="16" t="s">
         <v>771</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="K183" s="16" t="s">
-        <v>770</v>
       </c>
       <c r="L183" s="11"/>
       <c r="M183" s="11"/>
@@ -9347,23 +9353,23 @@
         <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H184" s="6"/>
       <c r="I184" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J184" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="K184" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
@@ -9372,23 +9378,23 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H185" s="6"/>
       <c r="I185" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J185" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K185" s="13" t="s">
         <v>780</v>
-      </c>
-      <c r="K185" s="13" t="s">
-        <v>779</v>
       </c>
       <c r="L185" s="11"/>
       <c r="M185" s="11"/>
@@ -9400,23 +9406,23 @@
         <v>6</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J186" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="K186" s="13" t="s">
         <v>784</v>
-      </c>
-      <c r="K186" s="13" t="s">
-        <v>783</v>
       </c>
       <c r="L186" s="11"/>
       <c r="M186" s="11"/>
@@ -9428,23 +9434,23 @@
         <v>6</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J187" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="K187" s="10" t="s">
         <v>788</v>
-      </c>
-      <c r="K187" s="10" t="s">
-        <v>787</v>
       </c>
       <c r="L187" s="11"/>
       <c r="M187" s="11"/>
@@ -9456,23 +9462,23 @@
         <v>23</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J188" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="K188" s="13" t="s">
         <v>792</v>
-      </c>
-      <c r="K188" s="13" t="s">
-        <v>791</v>
       </c>
       <c r="L188" s="11"/>
       <c r="M188" s="11"/>
@@ -9481,23 +9487,23 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H189" s="6"/>
       <c r="I189" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="J189" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K189" s="13" t="s">
         <v>796</v>
-      </c>
-      <c r="K189" s="13" t="s">
-        <v>795</v>
       </c>
       <c r="L189" s="11"/>
       <c r="M189" s="11"/>
@@ -9506,23 +9512,23 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J190" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="K190" s="13" t="s">
         <v>800</v>
-      </c>
-      <c r="K190" s="13" t="s">
-        <v>799</v>
       </c>
       <c r="L190" s="11"/>
       <c r="M190" s="11"/>
@@ -9534,23 +9540,23 @@
         <v>6</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J191" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="K191" s="13" t="s">
         <v>804</v>
-      </c>
-      <c r="K191" s="13" t="s">
-        <v>803</v>
       </c>
       <c r="L191" s="11"/>
       <c r="M191" s="11"/>
@@ -9559,23 +9565,23 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J192" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="K192" s="13" t="s">
         <v>808</v>
-      </c>
-      <c r="K192" s="13" t="s">
-        <v>807</v>
       </c>
       <c r="L192" s="11"/>
       <c r="M192" s="11"/>
@@ -9587,23 +9593,23 @@
         <v>6</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J193" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="K193" s="13" t="s">
         <v>812</v>
-      </c>
-      <c r="K193" s="13" t="s">
-        <v>811</v>
       </c>
       <c r="L193" s="11"/>
       <c r="M193" s="11"/>
@@ -9612,23 +9618,23 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="J194" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
@@ -9640,23 +9646,23 @@
         <v>23</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J195" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="K195" s="13" t="s">
         <v>820</v>
-      </c>
-      <c r="K195" s="13" t="s">
-        <v>819</v>
       </c>
       <c r="L195" s="11"/>
       <c r="M195" s="4"/>
@@ -9665,23 +9671,23 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H196" s="6"/>
       <c r="I196" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J196" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="K196" s="10" t="s">
         <v>824</v>
-      </c>
-      <c r="K196" s="10" t="s">
-        <v>823</v>
       </c>
       <c r="L196" s="11"/>
       <c r="M196" s="11"/>
@@ -9693,23 +9699,23 @@
         <v>6</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H197" s="6"/>
       <c r="I197" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J197" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="K197" s="13" t="s">
         <v>828</v>
-      </c>
-      <c r="K197" s="13" t="s">
-        <v>827</v>
       </c>
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
@@ -9718,23 +9724,23 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J198" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="K198" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="K198" s="13" t="s">
-        <v>831</v>
       </c>
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
@@ -9743,23 +9749,23 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J199" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K199" s="10" t="s">
         <v>836</v>
-      </c>
-      <c r="K199" s="10" t="s">
-        <v>835</v>
       </c>
       <c r="L199" s="11"/>
       <c r="M199" s="11"/>
@@ -9771,23 +9777,23 @@
         <v>23</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H200" s="6"/>
       <c r="I200" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J200" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="K200" s="13" t="s">
         <v>840</v>
-      </c>
-      <c r="K200" s="13" t="s">
-        <v>839</v>
       </c>
       <c r="L200" s="11"/>
       <c r="M200" s="4"/>
@@ -9799,23 +9805,23 @@
         <v>6</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J201" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>844</v>
-      </c>
-      <c r="K201" s="4" t="s">
-        <v>843</v>
       </c>
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
@@ -9824,23 +9830,23 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H202" s="6"/>
       <c r="I202" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J202" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K202" s="13" t="s">
         <v>848</v>
-      </c>
-      <c r="K202" s="13" t="s">
-        <v>847</v>
       </c>
       <c r="L202" s="11"/>
       <c r="M202" s="4"/>
@@ -9849,23 +9855,23 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H203" s="6"/>
       <c r="I203" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J203" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="K203" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="K203" s="13" t="s">
-        <v>851</v>
       </c>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
@@ -9874,23 +9880,23 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="9" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="J204" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="K204" s="17" t="s">
         <v>856</v>
-      </c>
-      <c r="K204" s="17" t="s">
-        <v>855</v>
       </c>
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
@@ -9902,23 +9908,23 @@
         <v>23</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H205" s="6"/>
       <c r="I205" s="7" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J205" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="K205" s="4" t="s">
-        <v>859</v>
       </c>
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
@@ -9930,23 +9936,23 @@
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J206" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="K206" s="13" t="s">
         <v>864</v>
-      </c>
-      <c r="K206" s="13" t="s">
-        <v>863</v>
       </c>
       <c r="L206" s="11"/>
       <c r="M206" s="11"/>
@@ -9955,23 +9961,23 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="K207" s="10" t="s">
         <v>868</v>
-      </c>
-      <c r="J207" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="K207" s="10" t="s">
-        <v>867</v>
       </c>
       <c r="L207" s="11"/>
       <c r="M207" s="11"/>
@@ -9983,23 +9989,23 @@
         <v>23</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="7" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J208" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="K208" s="4" t="s">
-        <v>872</v>
       </c>
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
@@ -10011,23 +10017,23 @@
         <v>6</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H209" s="6"/>
       <c r="I209" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J209" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K209" s="13" t="s">
         <v>877</v>
-      </c>
-      <c r="K209" s="13" t="s">
-        <v>876</v>
       </c>
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
@@ -10036,23 +10042,23 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H210" s="6"/>
       <c r="I210" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J210" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="K210" s="13" t="s">
         <v>881</v>
-      </c>
-      <c r="K210" s="13" t="s">
-        <v>880</v>
       </c>
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
@@ -10061,23 +10067,23 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H211" s="6"/>
       <c r="I211" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J211" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="K211" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="K211" s="13" t="s">
-        <v>884</v>
       </c>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
@@ -10086,23 +10092,23 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H212" s="6"/>
       <c r="I212" s="7" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J212" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="K212" s="13" t="s">
         <v>889</v>
-      </c>
-      <c r="K212" s="13" t="s">
-        <v>888</v>
       </c>
       <c r="L212" s="11"/>
       <c r="M212" s="11"/>
@@ -10111,23 +10117,23 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H213" s="6"/>
       <c r="I213" s="7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J213" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>893</v>
-      </c>
-      <c r="K213" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
@@ -10136,23 +10142,23 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="K214" s="10" t="s">
         <v>897</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="K214" s="10" t="s">
-        <v>896</v>
       </c>
       <c r="L214" s="11"/>
       <c r="M214" s="11"/>
@@ -10161,23 +10167,23 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="B215" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="J215" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="K215" s="13" t="s">
         <v>902</v>
-      </c>
-      <c r="K215" s="13" t="s">
-        <v>901</v>
       </c>
       <c r="L215" s="11"/>
       <c r="M215" s="11"/>
@@ -10186,23 +10192,23 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H216" s="6"/>
       <c r="I216" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J216" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="K216" s="13" t="s">
         <v>906</v>
-      </c>
-      <c r="K216" s="13" t="s">
-        <v>905</v>
       </c>
       <c r="L216" s="11"/>
       <c r="M216" s="11"/>
@@ -10211,23 +10217,23 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H217" s="6"/>
       <c r="I217" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="K217" s="13" t="s">
         <v>910</v>
-      </c>
-      <c r="J217" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="K217" s="13" t="s">
-        <v>909</v>
       </c>
       <c r="L217" s="11"/>
       <c r="M217" s="11"/>
@@ -10236,23 +10242,23 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H218" s="6"/>
       <c r="I218" s="15" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J218" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="K218" s="16" t="s">
         <v>915</v>
-      </c>
-      <c r="K218" s="16" t="s">
-        <v>914</v>
       </c>
       <c r="L218" s="11"/>
       <c r="M218" s="11"/>
@@ -10261,23 +10267,23 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H219" s="6"/>
       <c r="I219" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="K219" s="10" t="s">
         <v>919</v>
-      </c>
-      <c r="J219" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="K219" s="10" t="s">
-        <v>918</v>
       </c>
       <c r="L219" s="11"/>
       <c r="M219" s="11"/>
@@ -10286,23 +10292,23 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H220" s="6"/>
       <c r="I220" s="9" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J220" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="K220" s="10" t="s">
         <v>924</v>
-      </c>
-      <c r="K220" s="10" t="s">
-        <v>923</v>
       </c>
       <c r="L220" s="11"/>
       <c r="M220" s="11"/>
@@ -10311,23 +10317,23 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H221" s="6"/>
       <c r="I221" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="K221" s="13" t="s">
         <v>928</v>
-      </c>
-      <c r="J221" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="K221" s="13" t="s">
-        <v>927</v>
       </c>
       <c r="L221" s="11"/>
       <c r="M221" s="11"/>
@@ -10336,23 +10342,23 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H222" s="6"/>
       <c r="I222" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J222" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>933</v>
-      </c>
-      <c r="K222" s="4" t="s">
-        <v>932</v>
       </c>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
@@ -10361,23 +10367,23 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H223" s="6"/>
       <c r="I223" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="J223" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="K223" s="4" t="s">
-        <v>936</v>
       </c>
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
@@ -10386,23 +10392,23 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H224" s="6"/>
       <c r="I224" s="7" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J224" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>942</v>
-      </c>
-      <c r="K224" s="4" t="s">
-        <v>941</v>
       </c>
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
@@ -10411,23 +10417,23 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H225" s="6"/>
       <c r="I225" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="K225" s="13" t="s">
         <v>946</v>
-      </c>
-      <c r="J225" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="K225" s="13" t="s">
-        <v>945</v>
       </c>
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
@@ -10436,23 +10442,23 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H226" s="6"/>
       <c r="I226" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="K226" s="13" t="s">
         <v>951</v>
-      </c>
-      <c r="J226" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="K226" s="13" t="s">
-        <v>950</v>
       </c>
       <c r="L226" s="11"/>
       <c r="M226" s="11"/>
@@ -10461,23 +10467,23 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="B227" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H227" s="6"/>
       <c r="I227" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="K227" s="13" t="s">
         <v>956</v>
-      </c>
-      <c r="J227" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="K227" s="13" t="s">
-        <v>955</v>
       </c>
       <c r="L227" s="11"/>
       <c r="M227" s="11"/>
@@ -10486,23 +10492,23 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="B228" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H228" s="6"/>
       <c r="I228" s="7" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J228" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="K228" s="13" t="s">
         <v>961</v>
-      </c>
-      <c r="K228" s="13" t="s">
-        <v>960</v>
       </c>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
@@ -10511,23 +10517,23 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="B229" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H229" s="6"/>
       <c r="I229" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J229" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="K229" s="13" t="s">
         <v>965</v>
-      </c>
-      <c r="K229" s="13" t="s">
-        <v>964</v>
       </c>
       <c r="L229" s="11"/>
       <c r="M229" s="11"/>
@@ -10536,23 +10542,23 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="B230" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H230" s="6"/>
       <c r="I230" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="K230" s="13" t="s">
         <v>969</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="K230" s="13" t="s">
-        <v>968</v>
       </c>
       <c r="L230" s="11"/>
       <c r="M230" s="11"/>
@@ -10561,23 +10567,23 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H231" s="6"/>
       <c r="I231" s="9" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="J231" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="K231" s="10" t="s">
         <v>974</v>
-      </c>
-      <c r="K231" s="10" t="s">
-        <v>973</v>
       </c>
       <c r="L231" s="11"/>
       <c r="M231" s="4"/>
@@ -10586,23 +10592,23 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="B232" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="K232" s="13" t="s">
         <v>978</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="K232" s="13" t="s">
-        <v>977</v>
       </c>
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
@@ -10611,23 +10617,23 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="B233" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H233" s="6"/>
       <c r="I233" s="7" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="J233" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="K233" s="13" t="s">
         <v>983</v>
-      </c>
-      <c r="K233" s="13" t="s">
-        <v>982</v>
       </c>
       <c r="L233" s="11"/>
       <c r="M233" s="11"/>
@@ -10636,23 +10642,23 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="B234" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="7" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J234" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="K234" s="13" t="s">
         <v>987</v>
-      </c>
-      <c r="K234" s="13" t="s">
-        <v>986</v>
       </c>
       <c r="L234" s="11"/>
       <c r="M234" s="11"/>
@@ -10661,23 +10667,23 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="B235" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="J235" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K235" s="13" t="s">
         <v>991</v>
-      </c>
-      <c r="K235" s="13" t="s">
-        <v>990</v>
       </c>
       <c r="L235" s="4"/>
       <c r="M235" s="4"/>
@@ -10686,23 +10692,23 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="B236" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="7" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="J236" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="K236" s="13" t="s">
         <v>995</v>
-      </c>
-      <c r="K236" s="13" t="s">
-        <v>994</v>
       </c>
       <c r="L236" s="11"/>
       <c r="M236" s="11"/>
@@ -10711,23 +10717,23 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="B237" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="J237" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K237" s="13" t="s">
         <v>999</v>
-      </c>
-      <c r="K237" s="13" t="s">
-        <v>998</v>
       </c>
       <c r="L237" s="11"/>
       <c r="M237" s="11"/>
@@ -10736,23 +10742,23 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="9" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="J238" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K238" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="K238" s="10" t="s">
-        <v>1002</v>
       </c>
       <c r="L238" s="11"/>
       <c r="M238" s="11"/>
@@ -10761,23 +10767,23 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K239" s="13" t="s">
         <v>1007</v>
-      </c>
-      <c r="J239" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K239" s="13" t="s">
-        <v>1006</v>
       </c>
       <c r="L239" s="11"/>
       <c r="M239" s="11"/>
@@ -10786,23 +10792,23 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H240" s="6"/>
       <c r="I240" s="7" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="J240" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K240" s="13" t="s">
         <v>1012</v>
-      </c>
-      <c r="K240" s="13" t="s">
-        <v>1011</v>
       </c>
       <c r="L240" s="11"/>
       <c r="M240" s="11"/>
@@ -10811,23 +10817,23 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="9" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="J241" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K241" s="17" t="s">
         <v>1016</v>
-      </c>
-      <c r="K241" s="17" t="s">
-        <v>1015</v>
       </c>
       <c r="L241" s="4"/>
       <c r="M241" s="4"/>
@@ -10836,23 +10842,23 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K242" s="13" t="s">
         <v>1020</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K242" s="13" t="s">
-        <v>1019</v>
       </c>
       <c r="L242" s="11"/>
       <c r="M242" s="11"/>
@@ -10861,23 +10867,23 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="J243" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K243" s="13" t="s">
         <v>1025</v>
-      </c>
-      <c r="K243" s="13" t="s">
-        <v>1024</v>
       </c>
       <c r="L243" s="4"/>
       <c r="M243" s="4"/>
@@ -10886,23 +10892,23 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="J244" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K244" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="K244" s="13" t="s">
-        <v>1028</v>
       </c>
       <c r="L244" s="11"/>
       <c r="M244" s="4"/>
@@ -10911,23 +10917,23 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K245" s="13" t="s">
         <v>1033</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K245" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="L245" s="11"/>
       <c r="M245" s="11"/>
@@ -10936,23 +10942,23 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="B246" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K246" s="13" t="s">
         <v>1038</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K246" s="13" t="s">
-        <v>1037</v>
       </c>
       <c r="L246" s="11"/>
       <c r="M246" s="11"/>
@@ -10961,23 +10967,23 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="J247" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K247" s="13" t="s">
         <v>1043</v>
-      </c>
-      <c r="K247" s="13" t="s">
-        <v>1042</v>
       </c>
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
@@ -10986,23 +10992,23 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="7" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J248" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K248" s="13" t="s">
         <v>1047</v>
-      </c>
-      <c r="K248" s="13" t="s">
-        <v>1046</v>
       </c>
       <c r="L248" s="11"/>
       <c r="M248" s="4"/>
@@ -11011,23 +11017,23 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="B249" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K249" s="13" t="s">
         <v>1051</v>
-      </c>
-      <c r="J249" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K249" s="13" t="s">
-        <v>1050</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="4"/>
@@ -11036,23 +11042,23 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="7" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="J250" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K250" s="13" t="s">
         <v>1056</v>
-      </c>
-      <c r="K250" s="13" t="s">
-        <v>1055</v>
       </c>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
@@ -11061,23 +11067,23 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="7" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="J251" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K251" s="13" t="s">
         <v>1060</v>
-      </c>
-      <c r="K251" s="13" t="s">
-        <v>1059</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="4"/>
@@ -11086,23 +11092,23 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="7" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="J252" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K252" s="13" t="s">
         <v>1064</v>
-      </c>
-      <c r="K252" s="13" t="s">
-        <v>1063</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="4"/>
@@ -11111,23 +11117,23 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="7" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J253" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K253" s="13" t="s">
         <v>1068</v>
-      </c>
-      <c r="K253" s="13" t="s">
-        <v>1067</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="11"/>
@@ -11136,23 +11142,23 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="7" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J254" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K254" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="K254" s="13" t="s">
-        <v>1071</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="11"/>
@@ -11161,23 +11167,23 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K255" s="13" t="s">
         <v>1076</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K255" s="13" t="s">
-        <v>1075</v>
       </c>
       <c r="L255" s="11"/>
       <c r="M255" s="11"/>
@@ -11186,23 +11192,23 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K256" s="13" t="s">
         <v>1081</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K256" s="13" t="s">
-        <v>1080</v>
       </c>
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
@@ -11211,23 +11217,23 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="7" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="J257" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K257" s="13" t="s">
         <v>1086</v>
-      </c>
-      <c r="K257" s="13" t="s">
-        <v>1085</v>
       </c>
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
@@ -11236,23 +11242,23 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="B258" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K258" s="13" t="s">
         <v>1090</v>
-      </c>
-      <c r="J258" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K258" s="13" t="s">
-        <v>1089</v>
       </c>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
@@ -11261,23 +11267,23 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K259" s="13" t="s">
         <v>1095</v>
-      </c>
-      <c r="J259" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K259" s="13" t="s">
-        <v>1094</v>
       </c>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
@@ -11286,23 +11292,23 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="B260" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K260" s="13" t="s">
         <v>1100</v>
-      </c>
-      <c r="J260" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K260" s="13" t="s">
-        <v>1099</v>
       </c>
       <c r="L260" s="11"/>
       <c r="M260" s="11"/>
@@ -11311,23 +11317,23 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="7" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="J261" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K261" s="13" t="s">
         <v>1105</v>
-      </c>
-      <c r="K261" s="13" t="s">
-        <v>1104</v>
       </c>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
@@ -11336,23 +11342,23 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="B262" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="J262" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K262" s="13" t="s">
         <v>1109</v>
-      </c>
-      <c r="K262" s="13" t="s">
-        <v>1108</v>
       </c>
       <c r="L262" s="11"/>
       <c r="M262" s="4"/>
@@ -11361,23 +11367,23 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="7" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="J263" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K263" s="13" t="s">
         <v>1113</v>
-      </c>
-      <c r="K263" s="13" t="s">
-        <v>1112</v>
       </c>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
@@ -11386,23 +11392,23 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="B264" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="9" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="J264" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K264" s="10" t="s">
         <v>1117</v>
-      </c>
-      <c r="K264" s="10" t="s">
-        <v>1116</v>
       </c>
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
@@ -11411,23 +11417,23 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="B265" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H265" s="6"/>
       <c r="I265" s="9" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J265" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K265" s="10" t="s">
         <v>1121</v>
-      </c>
-      <c r="K265" s="10" t="s">
-        <v>1120</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
@@ -11436,23 +11442,23 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H266" s="6"/>
       <c r="I266" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K266" s="10" t="s">
         <v>1125</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="K266" s="10" t="s">
-        <v>1124</v>
       </c>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
@@ -11461,53 +11467,53 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H267" s="18"/>
       <c r="I267" s="9" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="J267" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K267" s="17" t="s">
         <v>1131</v>
-      </c>
-      <c r="K267" s="17" t="s">
-        <v>1130</v>
       </c>
       <c r="L267" s="4"/>
       <c r="M267" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="N267" s="4"/>
       <c r="O267" s="4"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H268" s="6"/>
       <c r="I268" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="J268" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K268" s="13" t="s">
         <v>1136</v>
-      </c>
-      <c r="K268" s="13" t="s">
-        <v>1135</v>
       </c>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
@@ -11516,23 +11522,23 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H269" s="6"/>
       <c r="I269" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K269" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="J269" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K269" s="13" t="s">
-        <v>1139</v>
       </c>
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
@@ -11541,23 +11547,23 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="B270" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H270" s="6"/>
       <c r="I270" s="7" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="J270" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K270" s="13" t="s">
         <v>1145</v>
-      </c>
-      <c r="K270" s="13" t="s">
-        <v>1144</v>
       </c>
       <c r="L270" s="11"/>
       <c r="M270" s="4"/>
@@ -11566,23 +11572,23 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H271" s="6"/>
       <c r="I271" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K271" s="13" t="s">
         <v>1149</v>
-      </c>
-      <c r="J271" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="K271" s="13" t="s">
-        <v>1148</v>
       </c>
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
@@ -11591,23 +11597,23 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="B272" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H272" s="6"/>
       <c r="I272" s="7" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="J272" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K272" s="13" t="s">
         <v>1154</v>
-      </c>
-      <c r="K272" s="13" t="s">
-        <v>1153</v>
       </c>
       <c r="L272" s="4"/>
       <c r="M272" s="4"/>
@@ -11616,80 +11622,80 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H273" s="18"/>
       <c r="I273" s="9" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="L273" s="4"/>
       <c r="M273" s="13" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="N273" s="4"/>
       <c r="O273" s="4"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H274" s="18"/>
       <c r="I274" s="19" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="K274" s="13" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="L274" s="4"/>
       <c r="M274" s="13" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="N274" s="11"/>
       <c r="O274" s="4"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="B275" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H275" s="6"/>
       <c r="I275" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K275" s="13" t="s">
         <v>1170</v>
-      </c>
-      <c r="J275" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="K275" s="13" t="s">
-        <v>1169</v>
       </c>
       <c r="L275" s="11"/>
       <c r="M275" s="11"/>
@@ -11698,23 +11704,23 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="B276" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H276" s="6"/>
       <c r="I276" s="7" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J276" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K276" s="13" t="s">
         <v>1175</v>
-      </c>
-      <c r="K276" s="13" t="s">
-        <v>1174</v>
       </c>
       <c r="L276" s="11"/>
       <c r="M276" s="11"/>
@@ -11726,23 +11732,23 @@
         <v>23</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H277" s="6"/>
       <c r="I277" s="7" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="J277" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>1179</v>
-      </c>
-      <c r="K277" s="4" t="s">
-        <v>1178</v>
       </c>
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
@@ -11751,57 +11757,57 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H278" s="18"/>
       <c r="I278" s="19" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="K278" s="13" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="L278" s="4"/>
       <c r="M278" s="13" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H279" s="18"/>
       <c r="I279" s="19" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="K279" s="13" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="L279" s="4"/>
       <c r="M279" s="13" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="N279" s="11"/>
       <c r="O279" s="4"/>
@@ -11811,23 +11817,23 @@
         <v>23</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H280" s="6"/>
       <c r="I280" s="7" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="J280" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>1194</v>
-      </c>
-      <c r="K280" s="4" t="s">
-        <v>1193</v>
       </c>
       <c r="L280" s="4"/>
       <c r="M280" s="4"/>
@@ -11836,23 +11842,23 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H281" s="6"/>
       <c r="I281" s="7" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="J281" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>1198</v>
-      </c>
-      <c r="K281" s="4" t="s">
-        <v>1197</v>
       </c>
       <c r="L281" s="4"/>
       <c r="M281" s="4"/>
@@ -11861,23 +11867,23 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="B282" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H282" s="6"/>
       <c r="I282" s="7" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="J282" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="K282" s="4" t="s">
-        <v>1201</v>
       </c>
       <c r="L282" s="4"/>
       <c r="M282" s="4"/>
@@ -11886,23 +11892,23 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="B283" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H283" s="6"/>
       <c r="I283" s="7" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="J283" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K283" s="13" t="s">
         <v>1206</v>
-      </c>
-      <c r="K283" s="13" t="s">
-        <v>1205</v>
       </c>
       <c r="L283" s="11"/>
       <c r="M283" s="11"/>
@@ -11911,23 +11917,23 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="B284" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H284" s="6"/>
       <c r="I284" s="7" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="J284" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K284" s="13" t="s">
         <v>1210</v>
-      </c>
-      <c r="K284" s="13" t="s">
-        <v>1209</v>
       </c>
       <c r="L284" s="11"/>
       <c r="M284" s="11"/>
@@ -11936,23 +11942,23 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="B285" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H285" s="6"/>
       <c r="I285" s="7" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="J285" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K285" s="13" t="s">
         <v>1214</v>
-      </c>
-      <c r="K285" s="13" t="s">
-        <v>1213</v>
       </c>
       <c r="L285" s="4"/>
       <c r="M285" s="4"/>
@@ -11961,30 +11967,30 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H286" s="18"/>
       <c r="I286" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K286" s="13" t="s">
         <v>1218</v>
-      </c>
-      <c r="J286" s="3" t="s">
-        <v>1219</v>
-      </c>
-      <c r="K286" s="13" t="s">
-        <v>1217</v>
       </c>
       <c r="L286" s="4"/>
       <c r="M286" s="13" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
@@ -11994,23 +12000,23 @@
         <v>23</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H287" s="6"/>
       <c r="I287" s="9" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="J287" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K287" s="10" t="s">
         <v>1223</v>
-      </c>
-      <c r="K287" s="10" t="s">
-        <v>1222</v>
       </c>
       <c r="L287" s="4"/>
       <c r="M287" s="4"/>
@@ -12019,107 +12025,107 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H288" s="18"/>
       <c r="I288" s="19" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="K288" s="13" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="L288" s="4"/>
       <c r="M288" s="13" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="B289" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H289" s="18"/>
       <c r="I289" s="19" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="K289" s="13" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="L289" s="4"/>
       <c r="M289" s="13" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="N289" s="11"/>
       <c r="O289" s="4"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="B290" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D290" s="5" t="s">
         <v>1238</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>1239</v>
       </c>
       <c r="H290" s="18"/>
       <c r="I290" s="19" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="K290" s="4" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="L290" s="4"/>
       <c r="M290" s="13" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="N290" s="4"/>
       <c r="O290" s="4"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="B291" s="1" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H291" s="6"/>
       <c r="I291" s="7" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K291" s="13" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="L291" s="11"/>
       <c r="M291" s="11"/>
@@ -12131,23 +12137,23 @@
         <v>23</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="H292" s="6"/>
       <c r="I292" s="7" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K292" s="4" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>
@@ -12156,23 +12162,23 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="B293" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="H293" s="6"/>
       <c r="I293" s="7" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="J293" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>1253</v>
-      </c>
-      <c r="K293" s="4" t="s">
-        <v>1251</v>
       </c>
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
@@ -12181,23 +12187,23 @@
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="B294" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="H294" s="6"/>
       <c r="I294" s="7" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K294" s="13" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="L294" s="4"/>
       <c r="M294" s="4"/>
@@ -12206,23 +12212,23 @@
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="B295" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="H295" s="6"/>
       <c r="I295" s="9" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K295" s="17" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="L295" s="4"/>
       <c r="M295" s="4"/>
@@ -12231,23 +12237,23 @@
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="B296" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="H296" s="6"/>
       <c r="I296" s="9" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K296" s="10" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="L296" s="11"/>
       <c r="M296" s="11"/>
@@ -12256,23 +12262,23 @@
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="B297" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="H297" s="6"/>
       <c r="I297" s="7" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="K297" s="13" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="L297" s="11"/>
       <c r="M297" s="11"/>
@@ -12281,23 +12287,23 @@
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="B298" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="H298" s="6"/>
       <c r="I298" s="7" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="K298" s="4" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="L298" s="4"/>
       <c r="M298" s="4"/>
@@ -12306,23 +12312,23 @@
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="B299" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="H299" s="6"/>
       <c r="I299" s="7" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="K299" s="13" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="L299" s="11"/>
       <c r="M299" s="4"/>
@@ -12331,23 +12337,23 @@
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="B300" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="H300" s="6"/>
       <c r="I300" s="7" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="K300" s="13" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
@@ -12356,23 +12362,23 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="B301" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="H301" s="6"/>
       <c r="I301" s="7" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="K301" s="13" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L301" s="11"/>
       <c r="M301" s="11"/>
@@ -12381,23 +12387,23 @@
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="B302" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="H302" s="6"/>
       <c r="I302" s="7" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="K302" s="13" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="L302" s="11"/>
       <c r="M302" s="11"/>
@@ -12406,23 +12412,23 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="B303" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="H303" s="6"/>
       <c r="I303" s="7" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="K303" s="13" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L303" s="4"/>
       <c r="M303" s="4"/>
@@ -12431,23 +12437,23 @@
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="B304" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="H304" s="6"/>
       <c r="I304" s="7" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="J304" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K304" s="13" t="s">
         <v>1298</v>
-      </c>
-      <c r="K304" s="13" t="s">
-        <v>1296</v>
       </c>
       <c r="L304" s="11"/>
       <c r="M304" s="11"/>
@@ -12456,23 +12462,23 @@
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="B305" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="H305" s="6"/>
       <c r="I305" s="7" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="J305" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K305" s="13" t="s">
         <v>1303</v>
-      </c>
-      <c r="K305" s="13" t="s">
-        <v>1301</v>
       </c>
       <c r="L305" s="11"/>
       <c r="M305" s="11"/>
@@ -12481,23 +12487,23 @@
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="B306" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="H306" s="6"/>
       <c r="I306" s="7" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="K306" s="13" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="L306" s="11"/>
       <c r="M306" s="11"/>
@@ -12506,23 +12512,23 @@
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="B307" s="1" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="H307" s="6"/>
       <c r="I307" s="7" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="K307" s="13" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="L307" s="11"/>
       <c r="M307" s="4"/>
@@ -12531,23 +12537,23 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="B308" s="1" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="H308" s="6"/>
       <c r="I308" s="7" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="J308" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K308" s="13" t="s">
         <v>1316</v>
-      </c>
-      <c r="K308" s="13" t="s">
-        <v>1314</v>
       </c>
       <c r="L308" s="11"/>
       <c r="M308" s="11"/>
@@ -12556,23 +12562,23 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="B309" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="H309" s="6"/>
       <c r="I309" s="7" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="J309" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>1321</v>
-      </c>
-      <c r="K309" s="4" t="s">
-        <v>1319</v>
       </c>
       <c r="L309" s="4"/>
       <c r="M309" s="4"/>
@@ -12581,23 +12587,23 @@
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="B310" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="H310" s="6"/>
       <c r="I310" s="9" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="K310" s="10" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="L310" s="4"/>
       <c r="M310" s="4"/>
@@ -12606,23 +12612,23 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="B311" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="H311" s="6"/>
       <c r="I311" s="7" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="K311" s="13" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="L311" s="11"/>
       <c r="M311" s="4"/>
@@ -12631,57 +12637,57 @@
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="H312" s="18"/>
       <c r="I312" s="7" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="J312" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K312" s="13" t="s">
         <v>1334</v>
-      </c>
-      <c r="K312" s="13" t="s">
-        <v>1332</v>
       </c>
       <c r="L312" s="4"/>
       <c r="M312" s="13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="B313" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H313" s="18"/>
       <c r="I313" s="7" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="K313" s="13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="L313" s="4"/>
       <c r="M313" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
@@ -12691,23 +12697,23 @@
         <v>23</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="H314" s="6"/>
       <c r="I314" s="7" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="K314" s="4" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
@@ -12716,107 +12722,107 @@
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="H315" s="18"/>
       <c r="I315" s="19" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="K315" s="21" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="L315" s="4"/>
       <c r="M315" s="13" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="B316" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="H316" s="18"/>
       <c r="I316" s="19" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="K316" s="22" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="L316" s="4"/>
       <c r="M316" s="13" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="B317" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H317" s="18"/>
       <c r="I317" s="19" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="K317" s="22" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="L317" s="4"/>
       <c r="M317" s="13" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="N317" s="11"/>
       <c r="O317" s="4"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="B318" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H318" s="6"/>
       <c r="I318" s="7" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="K318" s="13" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="L318" s="11"/>
       <c r="M318" s="11"/>
@@ -12825,23 +12831,23 @@
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="B319" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="H319" s="6"/>
       <c r="I319" s="7" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="K319" s="13" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="L319" s="11"/>
       <c r="M319" s="4"/>
@@ -12850,23 +12856,23 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="B320" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="H320" s="6"/>
       <c r="I320" s="7" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="K320" s="13" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
@@ -12875,23 +12881,23 @@
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="B321" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="H321" s="6"/>
       <c r="I321" s="7" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="K321" s="13" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="L321" s="11"/>
       <c r="M321" s="4"/>
@@ -12900,23 +12906,23 @@
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="B322" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="H322" s="6"/>
       <c r="I322" s="7" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="K322" s="13" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="L322" s="11"/>
       <c r="M322" s="11"/>
